--- a/q11/血肿1a_100人拟合优度.xlsx
+++ b/q11/血肿1a_100人拟合优度.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>线性回归</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>二次函数回归</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>三次函数回归</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>三角函数回归</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>指数函数回归</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>对数函数回归</t>
         </is>
       </c>
     </row>
@@ -445,7 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9786981400356464</v>
+        <v>0.8670628143643192</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.977931533888754</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9786981400356458</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8486411933148627</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8670421841590978</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4549519547707776</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.994644643711621</v>
+        <v>0.8914780887011885</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9861497258219512</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9946446437116238</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6012844370700308</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9807088041640691</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7795054154279705</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +516,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.999999999999997</v>
+        <v>0.3028502061919485</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.000000000000011</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9999999999999984</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.6543519674058393</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +537,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.000000000000002</v>
+        <v>0.8342707427397192</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9988907805156829</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4941974870931769</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9928373182981861</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.861706533597476</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +560,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.5461439191917148</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.856665394582627e-22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8701581390627758</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +583,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9942967838748188</v>
+        <v>0.9265825230447524</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9889446053693314</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9942967838748178</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7806745249544786</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.131145650724404e-26</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.981745553272506</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +606,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.983202028533679</v>
+        <v>0.8867890640029054</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8875893605484834</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9832020285336808</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8426786734492163</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8873549062989696</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.719526083298022</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +629,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999838</v>
+        <v>0.03028307825922844</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7838817680154212</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9999999999999762</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9761649929058078</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5508122881567751</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2792580791069911</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +652,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.000000000000001</v>
+        <v>0.7056637903689394</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9999999999999972</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9725535143914495</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9308141117070731</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +675,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9999942723267696</v>
+        <v>0.5854460037580914</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8488884303295912</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9999942723267521</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5510901228511531</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9744470263714533</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9637537773675451</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +698,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.999999999999998</v>
+        <v>0.9902437835085669</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9999999999999983</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.99024154190869</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.711497346785503</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +721,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9881741069068832</v>
+        <v>0.947884040636525</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9766258029325072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9881741069068778</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.193886489762196</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9745233699656842</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6549547602935367</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +744,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9988799952506147</v>
+        <v>0.9139179575713433</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9347331668681882</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9988799952506162</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5844646865939013</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9288791108267297</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6647731094633864</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +767,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>0.9883187964518118</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.9999999999999976</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8358865131997333</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +790,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.000000000000006</v>
+        <v>0.7729985510536037</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7740896506412445</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9999999999999929</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9739491308466676</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1871460881871961</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.405347288323055</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +813,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.9924371432800688</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9924385855206905</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7162577491428824</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +836,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.000000000000048</v>
+        <v>0.8421454683596081</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9102067927249231</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.000000000000064</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.787031975510723</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8421229518040461</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3793064879146699</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +859,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.000000000000078</v>
+        <v>0.4716107274365598</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.819281639449334</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.000000000000075</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9716496523956903</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1250843030926549</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.006303422052163368</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +882,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9994179516376643</v>
+        <v>0.8583799703479293</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9893705742220905</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9994179516376622</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6277353086155819</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9983756318726805</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9450942611073521</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +905,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9481818119010816</v>
+        <v>0.7509652045923239</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9481093890577035</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9481818119010822</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1553143590987028</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9437839991542041</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8638173662803665</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +928,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999976</v>
+        <v>0.9411946021825882</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9845152499131568</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5933543846301814</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9874910795113576</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.839593032562476</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +951,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>0.9998457172410398</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.9999999999999993</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7799206153066407</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +974,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9791021075199541</v>
+        <v>0.769273886012617</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9590255117170539</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9791021075199533</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.1646791232536512</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9367524760833605</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6910404974378037</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +997,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.000000000000006</v>
+        <v>0.954112824251227</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9843064011129259</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.000000000000009</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9659678658664634</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9892076185965528</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9738368995632182</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +1020,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.9034778342648281</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.000000000000013</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.000000000000007</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9997031801451346</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +1043,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9999999999999926</v>
+        <v>0.9529091106613654</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9991748852605487</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9999999999999855</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4283083925510435</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9528979684606053</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.4219609494051347</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +1066,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.000000000000012</v>
+        <v>0.1973965659893009</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.701181892546886</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.000000000000009</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3720803363836854</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1426566970490664</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.001433764665658381</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +1089,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9952737491558965</v>
+        <v>0.8138455207246919</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9950320929982135</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9952737491558954</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7421813566856238</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9899537253353882</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.8128106317831807</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +1112,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.999999999999998</v>
+        <v>0.8713375023996696</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9998442456872032</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9999999999999994</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.205347862258162</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9991615401696413</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.942467182124999</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +1135,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9999618080226779</v>
+        <v>0.9727309897789372</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9999616624915874</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.999961808022676</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3619221042674748</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.972717847886689</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6856442384083586</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +1158,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9999999999999917</v>
+        <v>0.249897728218946</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9999999999999919</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9018442044324253</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6329730125686381</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +1181,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9429035805430492</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9428807321143468</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5201460256465353</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +1204,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8945683554023154</v>
+        <v>0.5814252994282249</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5962468411889578</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8945683554023357</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2291175981819589</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.03600380062201365</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2207524364715423</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +1227,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9999999999999946</v>
+        <v>0.01763755662627986</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9965149570069352</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1981511386495131</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.01762292055193944</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1128484835429479</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +1250,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9944241533583241</v>
+        <v>0.9618459579861144</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9933207764192301</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9944241533583239</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2210929427415189</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9917587787731093</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7824321553690134</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +1273,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8332023450352977</v>
+        <v>0.1095587176186093</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4153988420907241</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8332023450353002</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4776649359196098</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2081667302488891</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.008250308196755089</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +1296,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9975848887021573</v>
+        <v>0.9178283224745497</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9596250051636929</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9975848887021562</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4294671852858329</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9523678026999258</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6634529151359277</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +1319,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9488568782245502</v>
+        <v>0.6951893510738762</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8308744038745575</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9488568782245539</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6966374025250395</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6951471674960678</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.1554649653078755</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +1342,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9106617653095079</v>
+        <v>0.7762209402325201</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8853135870183302</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.910661765309512</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7661464847438348</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8684213286824141</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5017396433353005</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +1365,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9662026462455575</v>
+        <v>0.8533456233710766</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9565680045159735</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9662026462455587</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.324930238497469</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9454379701995579</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.6350383583516717</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +1388,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.000000000000005</v>
+        <v>0.9657144076956218</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.999264712237187</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.334324575727274</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9657167786690274</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5527808595050115</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +1411,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>0.9063309326458483</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9982327323615761</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.9999999999999973</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9223793913344952</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9992785246904369</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9039846763954171</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +1434,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>0.949713401667276</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9515500935790505</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.9999999999999889</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2302518010439165</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9497106300505235</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.7196461315527832</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +1457,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9972557920979136</v>
+        <v>0.6959492249590052</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9857215946477141</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9972557920978983</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.933477931043713</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9671977341527189</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.8460298984635325</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +1480,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0.9990857935546196</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9996471372634574</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6791330774021725</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9990859755724752</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8559330965763322</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +1503,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0.9983197505813795</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9999999999999968</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.7496080984421123</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +1526,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9999999999999872</v>
+        <v>0.9916910602517777</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.99518291145294</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9945075027861655</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9916876058194111</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.6155809192375582</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +1549,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9999999999999974</v>
+        <v>0.6608737441488963</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.868841232047958</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.000000000000035</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8144744652614617</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6608128375895592</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1200295318565382</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +1572,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9650318331843417</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9794339237901791</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9999999999999925</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1006537110397873</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.965016690705646</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.8142873236016234</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +1595,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>0.9976770864967134</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="D51" t="n">
         <v>1.000000000000002</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9976719158500742</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.8349127574071905</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +1618,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.999756420637664</v>
+        <v>0.8121581591112017</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9987487684373767</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9997564206376638</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7945012188853148</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9935959827515853</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.8921605689436741</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +1641,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6354186972246855</v>
+        <v>0.4242303413496963</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6283960164313763</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6354186972246835</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.2661307762616991</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.6235007825092277</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3138537738162078</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +1664,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.000000000000004</v>
+        <v>0.915231956030216</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9983388605433102</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.000000000000007</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.264100419249226</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.997130541654676</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.8294743457091053</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +1687,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.999999999999988</v>
+        <v>0.8915888158027648</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8995636730243162</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9999999999999928</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9071809461582102</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8987829111642218</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.5434404210323824</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +1710,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9999999999999818</v>
+        <v>0.00311279077650026</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9999999999999983</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9999999999999793</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9999999999999971</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5420519905323763</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3013809594818159</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +1733,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.994309106764229</v>
+        <v>0.7972005300387972</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9894377978455635</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9943091067642307</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.256186658082388</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9912771237041123</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.8947368732317836</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +1756,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9999999999999908</v>
+        <v>0.8400609445652385</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.000000000000008</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8400466732463083</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3136348403088271</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +1779,20 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>0.9235635024766917</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.9999999999999891</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0.7700664378301812</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +1800,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.8551917797799562</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9999999999999936</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9999999999999993</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9679138429211296</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +1823,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8559012549276118</v>
+        <v>0.4131844406833762</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.7848801705237265</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8559012549276139</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6287373609163043</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.4131607623065897</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0008985703684819061</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +1846,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8647896437378662</v>
+        <v>0.3698277593578516</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8456041340409679</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8647896437378663</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.3828067626414575</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.3698012330728299</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0006103294519905192</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +1869,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.000000000000006</v>
+        <v>0.7829263885271563</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9999999999999996</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.000000000000008</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9886686252451894</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +1892,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>0.4865247279548989</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5057376365150379</v>
+      </c>
+      <c r="D64" t="n">
         <v>0.7405143206104325</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.02333580735212151</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.433869072179449e-18</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.1683143894334252</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +1915,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8878719263665872</v>
+        <v>0.617694547071165</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.8187448692845859</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.8878719263665898</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.3419049936804373</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9943678562738741</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9714613960312629</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +1938,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9999999999999951</v>
+        <v>0.9847525712768814</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9997162899608402</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9999999999999977</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7740513219055146</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9847444240133754</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.5919241346243252</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +1961,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9988337096891754</v>
+        <v>0.9925264688485995</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9978772305478981</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9988337096891745</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3410184393964065</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9925208090687445</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8005294819172685</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +1984,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9999999999999561</v>
+        <v>0.3589969147868714</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.000000000000021</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9999999999999943</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9999999999999826</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9953805461284613</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.7562499604443059</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +2007,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9131669486690647</v>
+        <v>0.409715301915316</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6651589281617666</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.9131669486690578</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.04683919199777018</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9507772386909185</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.7975144638920103</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +2030,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9869834960406462</v>
+        <v>0.8401629468974191</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9625061661770139</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9869834960406447</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.6433531456120151</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9868450246250626</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9618426531867018</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +2053,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>0.150640292877036</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9999999999999913</v>
+      </c>
+      <c r="D71" t="n">
         <v>1.00000000000001</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9999999999999988</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.3459774258893407</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02907529237689395</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +2076,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9982849290848517</v>
+        <v>0.9396644241865005</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.944880078537244</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.9982849290848465</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5982465612138491</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9445676539136528</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.5288563055034489</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +2099,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.000000000000017</v>
+        <v>0.7315612876469951</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9999999999999791</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.000000000000014</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9999999999999534</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.308588937670746e-18</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9893543445233092</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +2122,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.000000000000004</v>
+        <v>0.9762169713619342</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.8965080276491419</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +2145,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>0.9761675421245877</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9953608931955701</v>
+      </c>
+      <c r="D75" t="n">
         <v>0.999793236769662</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2566497525395449</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9761562661285202</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.4402048479223248</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +2168,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9996594439507519</v>
+        <v>0.9819299593380779</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9825338206238788</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9996594439507617</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.1674736197456238</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.981922053923913</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.576884745671367</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +2191,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9012060620453785</v>
+        <v>0.6782066007986568</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8348130244441776</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9012060620453743</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.4341099395781222</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6781615240778895</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.1461578877905752</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +2214,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9099312926636755</v>
+        <v>0.8787905382025447</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8823248893779345</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9099312926636843</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.5981404041888212</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8787806347311022</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.3859502824871219</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +2237,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>0.5630048311237279</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="D79" t="n">
         <v>1.000000000000002</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9999999999999988</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.8969677854172418</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +2260,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.902912367738916</v>
+        <v>0.5508158275116029</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6658918063305922</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9029123677389115</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.645240825728557</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.008985589795498065</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.2809286653226926</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +2283,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>0.96101579283195</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9999999999999988</v>
+      </c>
+      <c r="D81" t="n">
         <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.9610116915046969</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.7374942155604493</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +2306,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9971858572942667</v>
+        <v>0.9435375622975056</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9869170058181201</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9971858572942665</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.3927818965355748</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9435254222150441</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.4903131494853462</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +2329,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>0.9916705881441823</v>
+      </c>
+      <c r="C83" t="n">
         <v>1.000000000000002</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.000000000000004</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.8174676023928888</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +2352,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.000000000000005</v>
+        <v>0.9189289378986597</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9999999999999857</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9999999999999977</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9992432417624135</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +2375,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9866199999278845</v>
+        <v>0.8864361676262221</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9862035987299536</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9866199999278837</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.59895271270999</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8864147106454908</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.4007154313751204</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +2398,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.950859372839858</v>
+        <v>0.9475001304970919</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9477343675149279</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.950859372839857</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6987798722705982</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9477227242702226</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.6661161178487688</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +2421,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9999999999999903</v>
+        <v>0.9310681715032596</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9859181310016631</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.999999999999997</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.3981276742364049</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9310437774215364</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.6912684040922104</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +2444,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9959897049351779</v>
+        <v>0.9081973078671928</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.9812160083004347</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9959897049352041</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.5459050807513754</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9784393481661954</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.6851463637815844</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +2467,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9999999999999994</v>
+        <v>0.9984327524450133</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9999999999999972</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9300757041512666</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +2490,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.000000000000004</v>
+        <v>0.8988321482170962</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9954191062478069</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.000000000000005</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2674797836172038</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9909834201425494</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.8368588182255884</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +2513,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.985357935949874</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9999949231060443</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9999999999999989</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.3709254929129451</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9999629718856369</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9146368448809549</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +2536,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9999999999999885</v>
+        <v>0.8609921728077639</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.997124622779836</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9081080886700973</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.8609440802795375</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.3716238643689141</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +2559,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999999999999953</v>
+        <v>0.3816690628561915</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.955713671098936</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.7909576732659496</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.3816046210398963</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.7792880740251678</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +2582,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9994125933120951</v>
+        <v>0.9694712338077321</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9993194159669117</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9994125933120982</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.1737226420145551</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9991754014854819</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.7479685354085419</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +2605,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>0.4527686982468798</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9424364638273026</v>
+      </c>
+      <c r="D95" t="n">
         <v>0.9875379626745258</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.08421559323570815</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9895073635749652</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9247082532099129</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +2628,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.855769232150643</v>
+        <v>0.7038887361043334</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7339198216053023</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.855769232150642</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7115389665941008</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7038686482427207</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.2069426993388157</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +2651,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9838838096735407</v>
+        <v>0.9175412867555032</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.918022940285195</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9838838096735446</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.41127452295189</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9179057638704231</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.5725121706936038</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +2674,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000000000000005</v>
+        <v>0.4169188632964741</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9999999999999931</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.000000000000011</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5.177506027505183e-26</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.05757310719023025</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +2697,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9677430991882247</v>
+        <v>0.9527326258888638</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9544895771424884</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9677430991882262</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.3998955837680505</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9542434059982762</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.5537282947114933</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +2720,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>0.3438531925196977</v>
+      </c>
+      <c r="C100" t="n">
         <v>1.000000000000001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9272927005098961</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.6774184071309249</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +2743,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999999999999973</v>
+        <v>0.8967258649666702</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1240956704899917</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.3626886249332636</v>
       </c>
     </row>
   </sheetData>
